--- a/マージ練習/競合テスト_エクセル.xlsx
+++ b/マージ練習/競合テスト_エクセル.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d623b0613d49d56a/デスクトップ/マージ練習/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gittest\202304-ALL\マージ練習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{C06456DB-6935-4858-8692-22976927454A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{110DCEA7-1FF2-4860-8319-1A3AF8AF8445}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="1005" windowWidth="21600" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1880" yWindow="1010" windowWidth="21600" windowHeight="13440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,9 +56,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>小松</t>
+    <t>小松 敦史</t>
     <rPh sb="0" eb="2">
       <t>コマツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アツフミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -67,7 +69,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -424,15 +426,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="9.75" customWidth="1"/>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="12.08203125" customWidth="1"/>
     <col min="3" max="3" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -507,10 +511,10 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{23FCA1F1-9BB3-4398-B70B-A65EC0776BF1}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{9A1266A2-37F0-407F-A62F-8EAC433592B7}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId3"/>
 </worksheet>
 </file>
--- a/マージ練習/競合テスト_エクセル.xlsx
+++ b/マージ練習/競合テスト_エクセル.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -41,24 +41,64 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>石井</t>
+    <t>ishii@fujisystems.co.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>atsufumi.komatsu@fujisystems.co.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医師井 勇樹</t>
     <rPh sb="0" eb="2">
-      <t>イシイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ishii@fujisystems.co.jp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>atsufumi.komatsu@fujisystems.co.jp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小松 敦史</t>
+      <t>イシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ユウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yoichi.hattori@fujisystems.co.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hasiyama@fujisystems.co.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橋山　　　　　直弥</t>
+    <rPh sb="0" eb="1">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヤマ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナオヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>服部 洋</t>
     <rPh sb="0" eb="2">
-      <t>コマツ</t>
+      <t>ハットリ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒロシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>駒都 敦史</t>
+    <rPh sb="0" eb="1">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ミヤコ</t>
     </rPh>
     <rPh sb="3" eb="5">
       <t>アツフミ</t>
@@ -430,13 +470,13 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="9.75" customWidth="1"/>
-    <col min="2" max="2" width="12.08203125" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
     <col min="3" max="3" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -456,10 +496,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -467,25 +507,33 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4">
@@ -513,8 +561,10 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId5"/>
 </worksheet>
 </file>
--- a/マージ練習/競合テスト_エクセル.xlsx
+++ b/マージ練習/競合テスト_エクセル.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d623b0613d49d56a/デスクトップ/マージ練習/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER1\フジシステムズGit\202304-ALL\マージ練習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{C06456DB-6935-4858-8692-22976927454A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{110DCEA7-1FF2-4860-8319-1A3AF8AF8445}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BD360F-7E29-4C5F-ACAA-772FC8E9CE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="1005" windowWidth="21600" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -61,6 +61,17 @@
     <rPh sb="0" eb="2">
       <t>コマツ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半林</t>
+    <rPh sb="0" eb="2">
+      <t>ハンバヤシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hambayashi@fujisystems.co.jp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -427,12 +438,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9.75" customWidth="1"/>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="9.69921875" customWidth="1"/>
+    <col min="2" max="2" width="12.09765625" customWidth="1"/>
     <col min="3" max="3" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -473,8 +486,12 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4">
@@ -509,8 +526,9 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{23FCA1F1-9BB3-4398-B70B-A65EC0776BF1}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{9A1266A2-37F0-407F-A62F-8EAC433592B7}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{1AF0CF63-7615-4FBF-9D76-C6A29DA1C225}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
--- a/マージ練習/競合テスト_エクセル.xlsx
+++ b/マージ練習/競合テスト_エクセル.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER1\フジシステムズGit\202304-ALL\マージ練習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D6ED836-DB8A-496B-89C6-A5DCC9C1B4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10A809D-4136-4F03-BCA3-73EA7B1DED86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,37 +50,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>医師井 勇樹</t>
-    <rPh sb="0" eb="2">
-      <t>イシ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ユウキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>yoichi.hattori@fujisystems.co.jp</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>hasiyama@fujisystems.co.jp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>橋山　　　　　直弥</t>
-    <rPh sb="0" eb="1">
-      <t>ハシ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ヤマ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ナオヤ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -107,14 +81,43 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>半林</t>
+    <t>hambayashi@fujisystems.co.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半林 俊樹</t>
     <rPh sb="0" eb="2">
       <t>ハンバヤシ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hambayashi@fujisystems.co.jp</t>
+    <rPh sb="3" eb="5">
+      <t>トシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石井 勇樹</t>
+    <rPh sb="0" eb="2">
+      <t>イシイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ユウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橋山 直弥</t>
+    <rPh sb="0" eb="1">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヤマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナオヤ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -506,7 +509,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -517,7 +520,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -528,10 +531,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -539,10 +542,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -550,10 +553,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3">

--- a/マージ練習/競合テスト_エクセル.xlsx
+++ b/マージ練習/競合テスト_エクセル.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d623b0613d49d56a/デスクトップ/マージ練習/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\202304-ALL\マージ練習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{C06456DB-6935-4858-8692-22976927454A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{110DCEA7-1FF2-4860-8319-1A3AF8AF8445}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="1005" windowWidth="21600" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1875" yWindow="1005" windowWidth="21600" windowHeight="13440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -63,11 +62,25 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>石井(麻)</t>
+    <rPh sb="0" eb="2">
+      <t>イシイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>maya.ishii.bp@fujisystems.co.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -424,7 +437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -473,8 +486,12 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4">
@@ -507,10 +524,11 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{23FCA1F1-9BB3-4398-B70B-A65EC0776BF1}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{9A1266A2-37F0-407F-A62F-8EAC433592B7}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId4"/>
 </worksheet>
 </file>
--- a/マージ練習/競合テスト_エクセル.xlsx
+++ b/マージ練習/競合テスト_エクセル.xlsx
@@ -57,29 +57,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>服部 洋</t>
-    <rPh sb="0" eb="2">
-      <t>ハットリ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヒロシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>駒都 敦史</t>
-    <rPh sb="0" eb="1">
-      <t>コマ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ミヤコ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>アツフミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>hambayashi@fujisystems.co.jp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -120,17 +97,43 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>石井(麻)</t>
+    <t>maya.ishii.bp@fujisystems.co.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小松 敦史</t>
+    <rPh sb="0" eb="2">
+      <t>コマツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アツフミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>服部 洋一</t>
+    <rPh sb="0" eb="2">
+      <t>ハットリ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒロシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石井 麻弥</t>
     <rPh sb="0" eb="2">
       <t>イシイ</t>
     </rPh>
     <rPh sb="3" eb="4">
       <t>マ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>maya.ishii.bp@fujisystems.co.jp</t>
+    <rPh sb="4" eb="5">
+      <t>ヤ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -522,7 +525,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -533,7 +536,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -544,7 +547,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -555,7 +558,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
@@ -566,10 +569,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -577,10 +580,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3">

--- a/マージ練習/競合テスト_エクセル.xlsx
+++ b/マージ練習/競合テスト_エクセル.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\202304-ALL\マージ練習\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER1\フジシステムズGit\202304-ALL\マージ練習\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0DF06B-6918-4C3A-A24B-3DFAE012215E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -134,13 +135,41 @@
     <rPh sb="4" eb="5">
       <t>ヤ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フリガナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イシイ ユウキ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマツ アツフミ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハシヤマ ナオヤ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハットリ ヨウイチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハンバヤシ トシキ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イシイ マヤ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -497,19 +526,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9.75" customWidth="1"/>
-    <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="45.5" customWidth="1"/>
+    <col min="1" max="1" width="9.69921875" customWidth="1"/>
+    <col min="2" max="3" width="23.69921875" customWidth="1"/>
+    <col min="4" max="4" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -517,91 +546,113 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="C4" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId7"/>

--- a/マージ練習/競合テスト_エクセル.xlsx
+++ b/マージ練習/競合テスト_エクセル.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\202304-ALL\マージ練習\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gittest\202304-ALL\マージ練習\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -133,6 +133,20 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所属</t>
+    <rPh sb="0" eb="2">
+      <t>ショゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自立化</t>
+    <rPh sb="0" eb="3">
+      <t>ジリツカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -498,18 +512,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="9.75" customWidth="1"/>
     <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="45.5" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -517,91 +534,113 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="C4" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D4" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId7"/>

--- a/マージ練習/競合テスト_エクセル.xlsx
+++ b/マージ練習/競合テスト_エクセル.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gittest\202304-ALL\マージ練習\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\520-380\Desktop\github\fujisys\202304-ALL\マージ練習\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -148,6 +148,20 @@
     <rPh sb="0" eb="3">
       <t>ジリツカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桑本 瑠衣</t>
+    <rPh sb="0" eb="2">
+      <t>クワモト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rui.kuwamoto.bp@fujisystems.co.jp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -514,11 +528,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9.75" customWidth="1"/>
     <col min="2" max="2" width="23.75" customWidth="1"/>
@@ -628,9 +640,15 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -641,8 +659,9 @@
     <hyperlink ref="D4" r:id="rId4"/>
     <hyperlink ref="D6" r:id="rId5"/>
     <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId8"/>
 </worksheet>
 </file>
--- a/マージ練習/競合テスト_エクセル.xlsx
+++ b/マージ練習/競合テスト_エクセル.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -194,6 +194,10 @@
   </si>
   <si>
     <t>クワモト ルイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -632,7 +636,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>6</v>
